--- a/data/trans_orig/EJER_INT_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se realiza actividad física intensa</t>
+          <t>Nº medio de minutos/día en los que se realiza actividad física intensa (tasa de respuesta: 90,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_INT_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,91</t>
+          <t>50,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,75</t>
+          <t>37,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,26</t>
+          <t>43,68</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,87; 58,96</t>
+          <t>43,21; 59,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 19,16</t>
+          <t>12,04; 19,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,89; 35,06</t>
+          <t>25,12; 35,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,74; 44,4</t>
+          <t>32,09; 44,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,86</t>
+          <t>5,33; 10,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,86</t>
+          <t>14,02; 22,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,72; 49,49</t>
+          <t>39,14; 48,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,05</t>
+          <t>9,63; 14,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,6; 26,73</t>
+          <t>20,42; 26,94</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,66</t>
+          <t>46,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,09</t>
+          <t>26,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,03</t>
+          <t>35,84</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,67; 51,28</t>
+          <t>38,15; 55,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,74; 21,91</t>
+          <t>13,03; 22,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 34,4</t>
+          <t>20,92; 33,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 35,6</t>
+          <t>21,65; 32,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,93</t>
+          <t>3,46; 9,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,93</t>
+          <t>7,25; 12,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,54; 39,99</t>
+          <t>30,91; 40,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 15,05</t>
+          <t>9,28; 15,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,78; 20,12</t>
+          <t>13,69; 19,84</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,54</t>
+          <t>41,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,91</t>
+          <t>24,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,8</t>
+          <t>36,85</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,96; 45,15</t>
+          <t>34,64; 49,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 10,44</t>
+          <t>1,13; 10,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 20,42</t>
+          <t>9,12; 21,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 26,2</t>
+          <t>16,09; 38,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,28</t>
+          <t>1,1; 6,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 15,75</t>
+          <t>3,88; 15,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,05; 38,0</t>
+          <t>31,38; 43,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,71</t>
+          <t>1,08; 8,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,45; 16,41</t>
+          <t>8,82; 17,21</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,08</t>
+          <t>46,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,99</t>
+          <t>36,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,42</t>
+          <t>41,24</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,45; 44,48</t>
+          <t>39,15; 55,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,5</t>
+          <t>8,82; 14,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 31,65</t>
+          <t>14,19; 32,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,85; 38,18</t>
+          <t>28,55; 46,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,12</t>
+          <t>1,23; 5,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,63</t>
+          <t>3,41; 9,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,2; 38,55</t>
+          <t>35,9; 47,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,14</t>
+          <t>3,83; 9,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 19,97</t>
+          <t>9,4; 18,11</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,1</t>
+          <t>56,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>20,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,74</t>
+          <t>34,26</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,85; 56,13</t>
+          <t>39,13; 84,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 16,4</t>
+          <t>7,37; 16,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 28,36</t>
+          <t>10,63; 28,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 23,7</t>
+          <t>15,77; 28,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,2</t>
+          <t>0,92; 3,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,76</t>
+          <t>0,9; 5,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,06; 33,09</t>
+          <t>27,07; 45,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,07</t>
+          <t>3,13; 7,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,26</t>
+          <t>4,84; 12,16</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>66,49</t>
+          <t>74,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>22,75</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,76</t>
+          <t>37,17</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56,47; 79,42</t>
+          <t>59,71; 90,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 35,44</t>
+          <t>18,39; 36,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 45,54</t>
+          <t>21,35; 44,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 21,77</t>
+          <t>16,99; 33,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,88</t>
+          <t>2,23; 5,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 16,84</t>
+          <t>5,02; 16,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,66; 33,33</t>
+          <t>30,41; 45,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,34</t>
+          <t>6,85; 12,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,04; 23,12</t>
+          <t>12,44; 23,38</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,16</t>
+          <t>49,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,44</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,14</t>
+          <t>39,08</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,72; 46,39</t>
+          <t>45,41; 54,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,87</t>
+          <t>8,49; 14,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,27; 27,27</t>
+          <t>20,99; 27,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,15; 29,1</t>
+          <t>27,2; 33,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,72</t>
+          <t>2,66; 4,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,94</t>
+          <t>8,55; 11,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,03; 36,19</t>
+          <t>36,5; 42,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,31</t>
+          <t>6,38; 9,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,0; 18,28</t>
+          <t>14,97; 18,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EJER_INT_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15,38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29,4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40,61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>50,43</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>40,61</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29,4</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>37,47</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>24,55</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,32</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>11,8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32,8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>43,68</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,69</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>32,8</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,29</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>12,03; 19,34</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 35,14</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34,72; 47,43</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>43,21; 59,48</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>12,04; 19,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>34,72; 47,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>25,12; 35,14</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>5,56; 10,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 22,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 31,14</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>32,09; 44,97</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 10,03</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>20,39; 31,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14,02; 22,02</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>9,67; 14,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,42; 26,94</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29,04; 37,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>39,14; 48,7</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,63; 14,14</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>29,04; 37,9</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 26,94</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16,51</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26,75</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34,11</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>46,47</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16,91</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>34,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,75</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9,34</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18,44</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>26,72</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,44</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>9,34</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>11,48</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,65</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25,53</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>35,84</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>25,53</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>12,77; 21,78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 33,65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 43,6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>38,15; 55,44</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>13,03; 22,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>27,82; 43,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 33,65</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>3,28; 9,13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 12,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 23,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>21,65; 32,82</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 9,45</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>14,87; 23,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 12,28</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>8,9; 14,53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 19,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 29,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>30,91; 40,94</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>9,28; 15,11</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>21,58; 29,92</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>13,69; 19,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,75</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14,05</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35,53</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>41,24</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>35,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,05</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>24,7</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,69</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,07</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>36,85</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>27,78</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>12,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,79; 14,26</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 21,43</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28,21; 44,64</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>34,64; 49,75</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 10,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>28,21; 44,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>9,12; 21,43</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,98; 6,41</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 15,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 17,18</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>16,09; 38,57</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 6,92</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 17,18</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 15,1</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>5,33; 10,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,82; 17,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 34,49</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>31,38; 43,52</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 8,29</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>22,68; 34,49</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>8,82; 17,21</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19,93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37,15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>46,6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>37,15</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,93</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,87</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13,14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>36,17</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,14</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>8,25</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,91</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,85</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>41,24</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>24,85</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>8,61; 13,98</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 32,3</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29,94; 46,92</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>39,15; 55,8</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,82; 14,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>29,94; 46,92</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 32,3</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3,27; 6,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 9,15</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 19,24</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>28,55; 46,14</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 5,05</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 19,24</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 9,15</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>6,68; 10,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 18,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20,73; 29,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>35,9; 47,96</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 9,09</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>20,73; 29,9</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>9,4; 18,11</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,95</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>56,7</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,9</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>34,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,62</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,14</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>20,99</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,36</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>34,26</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>22,36</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>8,81; 17,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 28,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26,82; 45,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>39,13; 84,88</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 16,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>26,82; 45,78</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>10,63; 28,66</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>1,39; 3,65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 5,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 16,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>15,77; 28,58</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 3,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 16,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 5,96</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>4,52; 8,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 12,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 28,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>27,07; 45,9</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 7,1</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>17,73; 28,94</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 12,16</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>27,07</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32,43</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11,41</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>74,06</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>26,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,41</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>32,43</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9,36</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26,57</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>22,75</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,55</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,57</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,36</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>9,29</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17,06</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19,76</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>37,17</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,76</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,06</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>19,67; 36,63</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 44,72</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 33,6</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>59,71; 90,2</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>18,39; 36,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 33,6</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,35; 44,72</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>2,28; 6,04</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 16,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 69,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>16,99; 33,67</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 5,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 69,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,02; 16,57</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>6,99; 12,31</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 23,38</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 47,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>30,41; 45,0</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 12,48</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 47,12</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>12,44; 23,38</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>14,19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23,71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>36,8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>49,23</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>12,55</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>36,8</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>23,71</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10,02</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,82</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>29,85</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>16,82</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>10,02</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>9,14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,53</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>39,08</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>27,02</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>16,53</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>12,6; 15,92</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20,99; 27,16</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33,59; 40,45</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>45,41; 54,11</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8,49; 14,88</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>33,59; 40,45</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>20,99; 27,16</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>3,66; 5,34</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 11,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,86; 19,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>27,2; 33,68</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 4,7</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>14,86; 19,54</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 11,61</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>8,27; 10,09</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 18,29</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24,98; 29,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>36,5; 42,02</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 9,34</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>24,98; 29,07</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>14,97; 18,29</t>
         </is>
       </c>
     </row>
